--- a/downloaded_files/CMPS118_Tutorial-35665.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35665.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Bilal Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230030</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.3831211458</x:v>
+        <x:v>45907.6651860764</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.6472162037</x:v>
+        <x:v>45912.3831211458</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.8148445602</x:v>
+        <x:v>45912.6472162037</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45909.8148445602</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.677056713</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.677056713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6478423264</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45912.6478423264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.5117908218</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45909.5117908218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4245710648</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6456549769</x:v>
+        <x:v>45908.4245710648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45912.6456549769</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6462974537</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45912.6462974537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6648391551</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Tutorial-35665.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35665.xlsx
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240039</x:t>
   </x:si>
   <x:si>
@@ -132,15 +141,6 @@
     <x:t>Maher Mohammed Fathy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد  وليد  عبد الفتاح ليمونة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Walid Abdelfatah laimona</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240355</x:t>
   </x:si>
   <x:si>
@@ -159,6 +159,15 @@
     <x:t>Mohamed hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240361</x:t>
   </x:si>
   <x:si>
@@ -247,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed Mohamed Hassan Amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حسام السيد هدهد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef hussam elsayed abdelrahman hodhod</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -762,7 +762,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45927.6035851852</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -794,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45924.612878044</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -826,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.3831211458</x:v>
+        <x:v>45907.6651860764</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6472162037</x:v>
+        <x:v>45912.3831211458</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.8148445602</x:v>
+        <x:v>45912.6472162037</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45909.8148445602</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.677056713</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.677056713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6478423264</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1210,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.5117908218</x:v>
+        <x:v>45927.6185469907</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45909.5117908218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4245710648</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6456549769</x:v>
+        <x:v>45908.4245710648</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4147929398</x:v>
+        <x:v>45912.6456549769</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4147929398</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6462974537</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45912.6462974537</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/CMPS118_Tutorial-35665.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35665.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed Mohamed Hassan Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.7824397338</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS118_Tutorial-35665.xlsx
+++ b/downloaded_files/CMPS118_Tutorial-35665.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45938.6244545486</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
